--- a/artfynd/A 51646-2019.xlsx
+++ b/artfynd/A 51646-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1957,6 +1957,258 @@
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112488501</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90155</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Hyltåkra, Sm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>428943</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6274121</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Kronoberg</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Ljungby</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Hamneda</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Rullstensås. Vid tall.</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Krister Wahlström</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Krister Wahlström</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112486878</v>
+      </c>
+      <c r="B13" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Hyltåkra, Sm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>428966</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6274117</v>
+      </c>
+      <c r="S13" t="n">
+        <v>61</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Kronoberg</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Ljungby</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Hamneda</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>G-Lju-1388</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>1 blommsamling. Skogen orörd.</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Krister Wahlström</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Krister Wahlström</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 51646-2019.xlsx
+++ b/artfynd/A 51646-2019.xlsx
@@ -1962,7 +1962,7 @@
         <v>112488501</v>
       </c>
       <c r="B12" t="n">
-        <v>90155</v>
+        <v>90169</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>112486878</v>
       </c>
       <c r="B13" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/artfynd/A 51646-2019.xlsx
+++ b/artfynd/A 51646-2019.xlsx
@@ -1959,10 +1959,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112488501</v>
+        <v>112486878</v>
       </c>
       <c r="B12" t="n">
-        <v>90169</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1971,38 +1971,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6031</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -2010,13 +2015,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>428943</v>
+        <v>428966</v>
       </c>
       <c r="R12" t="n">
-        <v>6274121</v>
+        <v>6274117</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2038,6 +2043,11 @@
           <t>Hamneda</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>G-Lju-1388</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>2023-10-02</t>
@@ -2050,7 +2060,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Rullstensås. Vid tall.</t>
+          <t>1 blommsamling. Skogen orörd.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2074,14 +2084,18 @@
           <t>Krister Wahlström</t>
         </is>
       </c>
-      <c r="AY12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112486878</v>
+        <v>112488501</v>
       </c>
       <c r="B13" t="n">
-        <v>96735</v>
+        <v>90169</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2090,43 +2104,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6031</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2134,13 +2143,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>428966</v>
+        <v>428943</v>
       </c>
       <c r="R13" t="n">
-        <v>6274117</v>
+        <v>6274121</v>
       </c>
       <c r="S13" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2162,11 +2171,6 @@
           <t>Hamneda</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>G-Lju-1388</t>
-        </is>
-      </c>
       <c r="Y13" t="inlineStr">
         <is>
           <t>2023-10-02</t>
@@ -2179,7 +2183,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>1 blommsamling. Skogen orörd.</t>
+          <t>Rullstensås. Vid tall.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2203,11 +2207,7 @@
           <t>Krister Wahlström</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
